--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H2">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I2">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J2">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>3.550816576295</v>
+        <v>78.669491633348</v>
       </c>
       <c r="R2">
-        <v>14.20326630518</v>
+        <v>314.677966533392</v>
       </c>
       <c r="S2">
-        <v>4.50730427940839E-05</v>
+        <v>0.001061155696779958</v>
       </c>
       <c r="T2">
-        <v>2.250953170727844E-05</v>
+        <v>0.0005227947114690048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H3">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I3">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J3">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>312.2040553817625</v>
+        <v>1470.91912496892</v>
       </c>
       <c r="R3">
-        <v>1873.224332290575</v>
+        <v>8825.514749813519</v>
       </c>
       <c r="S3">
-        <v>0.003963028347522176</v>
+        <v>0.0198409088015729</v>
       </c>
       <c r="T3">
-        <v>0.002968711674944957</v>
+        <v>0.01466239434563207</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H4">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I4">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J4">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>2.524585051431667</v>
+        <v>8.173522178770666</v>
       </c>
       <c r="R4">
-        <v>15.14751030859</v>
+        <v>49.04113307262399</v>
       </c>
       <c r="S4">
-        <v>3.204635542712708E-05</v>
+        <v>0.0001102508665390076</v>
       </c>
       <c r="T4">
-        <v>2.40059825853707E-05</v>
+        <v>8.147518333507126E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H5">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I5">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J5">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>136.4499415807637</v>
+        <v>383.646348055868</v>
       </c>
       <c r="R5">
-        <v>545.799766323055</v>
+        <v>1534.585392223472</v>
       </c>
       <c r="S5">
-        <v>0.001732056253532894</v>
+        <v>0.005174922315320231</v>
       </c>
       <c r="T5">
-        <v>0.000864990973336416</v>
+        <v>0.002549505248779108</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H6">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I6">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J6">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>6.412214724130833</v>
+        <v>54.70023874318666</v>
       </c>
       <c r="R6">
-        <v>38.473288344785</v>
+        <v>328.2014324591199</v>
       </c>
       <c r="S6">
-        <v>8.139480664674934E-05</v>
+        <v>0.0007378396472686854</v>
       </c>
       <c r="T6">
-        <v>6.09729963004611E-05</v>
+        <v>0.0005452621137615375</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H7">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I7">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J7">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>1.770583171296667</v>
+        <v>3.220638949930667</v>
       </c>
       <c r="R7">
-        <v>10.62349902778</v>
+        <v>19.323833699584</v>
       </c>
       <c r="S7">
-        <v>2.247527275362963E-05</v>
+        <v>4.344249972935668E-05</v>
       </c>
       <c r="T7">
-        <v>1.683626731133272E-05</v>
+        <v>3.210392572044613E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I8">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J8">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>578.115304639058</v>
+        <v>2718.581249539425</v>
       </c>
       <c r="R8">
-        <v>3468.691827834348</v>
+        <v>16311.48749723655</v>
       </c>
       <c r="S8">
-        <v>0.007338429148908613</v>
+        <v>0.03667035238454565</v>
       </c>
       <c r="T8">
-        <v>0.005497230496406253</v>
+        <v>0.0270993215498714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I9">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J9">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
-        <v>50830.54523050137</v>
+        <v>50830.54523050136</v>
       </c>
       <c r="R9">
-        <v>457474.9070745123</v>
+        <v>457474.9070745122</v>
       </c>
       <c r="S9">
-        <v>0.6452282992357709</v>
+        <v>0.6856421914249797</v>
       </c>
       <c r="T9">
-        <v>0.7250125221071456</v>
+        <v>0.7600324378699402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I10">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J10">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>411.0325680687528</v>
+        <v>282.4523671954344</v>
       </c>
       <c r="R10">
-        <v>3699.293112618775</v>
+        <v>2542.071304758909</v>
       </c>
       <c r="S10">
-        <v>0.005217529019664553</v>
+        <v>0.003809938672482355</v>
       </c>
       <c r="T10">
-        <v>0.005862690582844336</v>
+        <v>0.004223306286568512</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I11">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J11">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>22215.67852070072</v>
+        <v>13257.66503157168</v>
       </c>
       <c r="R11">
-        <v>133294.0711242043</v>
+        <v>79545.99018943007</v>
       </c>
       <c r="S11">
-        <v>0.2819994238361819</v>
+        <v>0.1788297659252842</v>
       </c>
       <c r="T11">
-        <v>0.2112462764475696</v>
+        <v>0.1321548611989853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I12">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J12">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>1043.985063435722</v>
+        <v>1890.275891010338</v>
       </c>
       <c r="R12">
-        <v>9395.865570921502</v>
+        <v>17012.48301909304</v>
       </c>
       <c r="S12">
-        <v>0.01325204567162451</v>
+        <v>0.02549752119385934</v>
       </c>
       <c r="T12">
-        <v>0.01489069693137061</v>
+        <v>0.02826393042168811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>3043.598511</v>
       </c>
       <c r="I13">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J13">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>288.2720657260787</v>
+        <v>111.2956049293493</v>
       </c>
       <c r="R13">
-        <v>2594.448591534708</v>
+        <v>1001.660444364144</v>
       </c>
       <c r="S13">
-        <v>0.003659242564528074</v>
+        <v>0.001501242257262626</v>
       </c>
       <c r="T13">
-        <v>0.004111717796402627</v>
+        <v>0.001664122813459516</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H14">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I14">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J14">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N14">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O14">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P14">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q14">
-        <v>0.2162808745893333</v>
+        <v>0.2826670264495</v>
       </c>
       <c r="R14">
-        <v>1.297685247536</v>
+        <v>1.696002158697</v>
       </c>
       <c r="S14">
-        <v>2.74540712155812E-06</v>
+        <v>3.812834164566885E-06</v>
       </c>
       <c r="T14">
-        <v>2.056589420901439E-06</v>
+        <v>2.817677287592106E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H15">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I15">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J15">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
         <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P15">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q15">
-        <v>19.01640501486</v>
+        <v>5.285153451105</v>
       </c>
       <c r="R15">
-        <v>171.14764513374</v>
+        <v>47.56638105994499</v>
       </c>
       <c r="S15">
-        <v>0.0002413887675152069</v>
+        <v>7.129028771579015E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002712371409496808</v>
+        <v>7.902508312166773E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H16">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I16">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J16">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N16">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O16">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P16">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q16">
-        <v>0.1537729283297778</v>
+        <v>0.02936824888433333</v>
       </c>
       <c r="R16">
-        <v>1.383956354968</v>
+        <v>0.264314239959</v>
       </c>
       <c r="S16">
-        <v>1.951949257376635E-06</v>
+        <v>3.961419345800299E-07</v>
       </c>
       <c r="T16">
-        <v>2.193313058016826E-06</v>
+        <v>4.391222186248986E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H17">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I17">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J17">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N17">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O17">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P17">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q17">
-        <v>8.311190417372666</v>
+        <v>1.3784781134545</v>
       </c>
       <c r="R17">
-        <v>49.867142504236</v>
+        <v>8.270868680726998</v>
       </c>
       <c r="S17">
-        <v>0.0001054998570900261</v>
+        <v>1.859399206233918E-05</v>
       </c>
       <c r="T17">
-        <v>7.903013301532595E-05</v>
+        <v>1.37409252168911E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H18">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I18">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J18">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N18">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O18">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P18">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q18">
-        <v>0.3905691490368888</v>
+        <v>0.1965432025883333</v>
       </c>
       <c r="R18">
-        <v>3.515122341332</v>
+        <v>1.768888823295</v>
       </c>
       <c r="S18">
-        <v>4.957772273035058E-06</v>
+        <v>2.651128598390197E-06</v>
       </c>
       <c r="T18">
-        <v>5.57081421252509E-06</v>
+        <v>2.938768583586628E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H19">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I19">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J19">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N19">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O19">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P19">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q19">
-        <v>0.1078465385617778</v>
+        <v>0.01157206454933333</v>
       </c>
       <c r="R19">
-        <v>0.970618847056</v>
+        <v>0.104148580944</v>
       </c>
       <c r="S19">
-        <v>1.368972894922349E-06</v>
+        <v>1.56093066893864E-07</v>
       </c>
       <c r="T19">
-        <v>1.5382500929044E-06</v>
+        <v>1.730287249671387E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H20">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I20">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J20">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N20">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O20">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P20">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q20">
-        <v>15.065228839367</v>
+        <v>118.5515201181658</v>
       </c>
       <c r="R20">
-        <v>60.260915357468</v>
+        <v>474.2060804726631</v>
       </c>
       <c r="S20">
-        <v>0.0001912336752939169</v>
+        <v>0.001599115722288309</v>
       </c>
       <c r="T20">
-        <v>9.55023271269543E-05</v>
+        <v>0.0007878290105552922</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H21">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I21">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J21">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
         <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P21">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q21">
-        <v>1324.603915140083</v>
+        <v>2216.611479436943</v>
       </c>
       <c r="R21">
-        <v>7947.623490840497</v>
+        <v>13299.66887662166</v>
       </c>
       <c r="S21">
-        <v>0.01681414054189654</v>
+        <v>0.0298993911123137</v>
       </c>
       <c r="T21">
-        <v>0.01259550297239307</v>
+        <v>0.02209559388470532</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H22">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I22">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J22">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N22">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O22">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P22">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q22">
-        <v>10.71118451405567</v>
+        <v>12.31714428166017</v>
       </c>
       <c r="R22">
-        <v>64.26710708433401</v>
+        <v>73.902865689961</v>
       </c>
       <c r="S22">
-        <v>0.0001359646908264434</v>
+        <v>0.000166143285677517</v>
       </c>
       <c r="T22">
-        <v>0.0001018513948529068</v>
+        <v>0.0001227795761194991</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H23">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I23">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J23">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N23">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O23">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P23">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q23">
-        <v>578.9230592072358</v>
+        <v>578.1384473892582</v>
       </c>
       <c r="R23">
-        <v>2315.692236828943</v>
+        <v>2312.553789557033</v>
       </c>
       <c r="S23">
-        <v>0.007348682552720472</v>
+        <v>0.007798384027113387</v>
       </c>
       <c r="T23">
-        <v>0.003669940893116207</v>
+        <v>0.003841994101101866</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H24">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I24">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J24">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N24">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O24">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P24">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q24">
-        <v>27.20542728990683</v>
+        <v>82.43089308438417</v>
       </c>
       <c r="R24">
-        <v>163.232563739441</v>
+        <v>494.5853585063049</v>
       </c>
       <c r="S24">
-        <v>0.0003453378573975188</v>
+        <v>0.001111892424509764</v>
       </c>
       <c r="T24">
-        <v>0.0002586932111392761</v>
+        <v>0.0008216864137186429</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H25">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I25">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J25">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N25">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O25">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P25">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q25">
-        <v>7.512142652704667</v>
+        <v>4.853363550962666</v>
       </c>
       <c r="R25">
-        <v>45.072855916228</v>
+        <v>29.120181305776</v>
       </c>
       <c r="S25">
-        <v>9.53569749338948E-05</v>
+        <v>6.54659674763308E-05</v>
       </c>
       <c r="T25">
-        <v>7.143208171868948E-05</v>
+        <v>4.837922702815862E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H26">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I26">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J26">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N26">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O26">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P26">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q26">
-        <v>6.558997519354666</v>
+        <v>0.4052997891891667</v>
       </c>
       <c r="R26">
-        <v>39.35398511612799</v>
+        <v>2.431798735135001</v>
       </c>
       <c r="S26">
-        <v>8.325802516801192E-05</v>
+        <v>5.467000882709234E-06</v>
       </c>
       <c r="T26">
-        <v>6.236873665152478E-05</v>
+        <v>4.040103385982337E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H27">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I27">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J27">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
         <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P27">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q27">
-        <v>576.6971007322801</v>
+        <v>7.578073772775</v>
       </c>
       <c r="R27">
-        <v>5190.273906590521</v>
+        <v>68.20266395497499</v>
       </c>
       <c r="S27">
-        <v>0.007320426877034679</v>
+        <v>0.0001022189922375217</v>
       </c>
       <c r="T27">
-        <v>0.008225617443168727</v>
+        <v>0.0001133094649636838</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H28">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I28">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J28">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N28">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O28">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P28">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q28">
-        <v>4.663363126184889</v>
+        <v>0.04210942192722222</v>
       </c>
       <c r="R28">
-        <v>41.970268135664</v>
+        <v>0.378984797345</v>
       </c>
       <c r="S28">
-        <v>5.919538822537641E-05</v>
+        <v>5.680048521788198E-07</v>
       </c>
       <c r="T28">
-        <v>6.651505794960407E-05</v>
+        <v>6.296317786777546E-07</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H29">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I29">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J29">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N29">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O29">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P29">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q29">
-        <v>252.0476090821213</v>
+        <v>1.976519496464167</v>
       </c>
       <c r="R29">
-        <v>1512.285654492728</v>
+        <v>11.859116978785</v>
       </c>
       <c r="S29">
-        <v>0.003199419746473876</v>
+        <v>2.666084246793986E-05</v>
       </c>
       <c r="T29">
-        <v>0.002396691096177752</v>
+        <v>1.970231251809993E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H30">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I30">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J30">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N30">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O30">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P30">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q30">
-        <v>11.84451507574844</v>
+        <v>0.2818118532472222</v>
       </c>
       <c r="R30">
-        <v>106.600635681736</v>
+        <v>2.536306679225</v>
       </c>
       <c r="S30">
-        <v>0.0001503508625166528</v>
+        <v>3.801298918863758E-06</v>
       </c>
       <c r="T30">
-        <v>0.0001689421529763864</v>
+        <v>4.213729144018854E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H31">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I31">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J31">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N31">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O31">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P31">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q31">
-        <v>3.270585900120889</v>
+        <v>0.01659250950222222</v>
       </c>
       <c r="R31">
-        <v>29.435273101088</v>
+        <v>0.14933258552</v>
       </c>
       <c r="S31">
-        <v>4.15158753121775E-05</v>
+        <v>2.238127591343807E-07</v>
       </c>
       <c r="T31">
-        <v>4.664942548741033E-05</v>
+        <v>2.480958130621595E-07</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H32">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I32">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J32">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N32">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O32">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P32">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q32">
-        <v>0.7772060898333333</v>
+        <v>0.5957720666205001</v>
       </c>
       <c r="R32">
-        <v>4.663236539</v>
+        <v>3.574632399723</v>
       </c>
       <c r="S32">
-        <v>9.865630227352552E-06</v>
+        <v>8.036240089401057E-06</v>
       </c>
       <c r="T32">
-        <v>7.390361377289518E-06</v>
+        <v>5.93876633501963E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H33">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I33">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J33">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
         <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P33">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q33">
-        <v>68.33551885875001</v>
+        <v>11.139420234195</v>
       </c>
       <c r="R33">
-        <v>615.0196697287502</v>
+        <v>100.254782107755</v>
       </c>
       <c r="S33">
-        <v>0.0008674313921025456</v>
+        <v>0.0001502572216359814</v>
       </c>
       <c r="T33">
-        <v>0.0009746916278905727</v>
+        <v>0.0001665597069372506</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H34">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I34">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J34">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N34">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O34">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P34">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q34">
-        <v>0.5525835632777778</v>
+        <v>0.061898915309</v>
       </c>
       <c r="R34">
-        <v>4.973252069500001</v>
+        <v>0.557090237781</v>
       </c>
       <c r="S34">
-        <v>7.014336578577868E-06</v>
+        <v>8.349410329327955E-07</v>
       </c>
       <c r="T34">
-        <v>7.881678252126505E-06</v>
+        <v>9.255297831346952E-07</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H35">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I35">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J35">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N35">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O35">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P35">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q35">
-        <v>29.86629223879167</v>
+        <v>2.9053928389155</v>
       </c>
       <c r="R35">
-        <v>179.19775343275</v>
+        <v>17.432357033493</v>
       </c>
       <c r="S35">
-        <v>0.0003791141105870049</v>
+        <v>3.919021336464264E-05</v>
       </c>
       <c r="T35">
-        <v>0.0002839950632550244</v>
+        <v>2.89614940821812E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H36">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I36">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J36">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N36">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O36">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P36">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q36">
-        <v>1.403511622138889</v>
+        <v>0.414250475045</v>
       </c>
       <c r="R36">
-        <v>12.63160459925</v>
+        <v>3.728254275404999</v>
       </c>
       <c r="S36">
-        <v>1.781577224489238E-05</v>
+        <v>5.58773474139835E-06</v>
       </c>
       <c r="T36">
-        <v>2.001874062847959E-05</v>
+        <v>6.193988221245896E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H37">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I37">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J37">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N37">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O37">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P37">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q37">
-        <v>0.3875469187777777</v>
+        <v>0.024390226544</v>
       </c>
       <c r="R37">
-        <v>3.487922269</v>
+        <v>0.219512038896</v>
       </c>
       <c r="S37">
-        <v>4.919408952690129E-06</v>
+        <v>3.28994471752097E-07</v>
       </c>
       <c r="T37">
-        <v>5.527707163946122E-06</v>
+        <v>3.646894452218648E-07</v>
       </c>
     </row>
   </sheetData>
